--- a/reference/hardware/v0.3/BOMs/v0.3.6_bom.xlsx
+++ b/reference/hardware/v0.3/BOMs/v0.3.6_bom.xlsx
@@ -40,6 +40,28 @@
     <author>Josh Stewart</author>
   </authors>
   <commentList>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Josh Stewart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+http://au.mouser.com/Tools/part-list-import.aspx</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B29" authorId="0">
       <text>
         <r>
@@ -103,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="250">
   <si>
     <t>QTY</t>
   </si>
@@ -787,15 +809,9 @@
     <t>603-MFR-25FBF52-2K49</t>
   </si>
   <si>
-    <t>603-MFR-25FBF52-100K</t>
-  </si>
-  <si>
     <t>841-MPX4250AP</t>
   </si>
   <si>
-    <t>Mouser Full</t>
-  </si>
-  <si>
     <t>517-9691020000DA</t>
   </si>
   <si>
@@ -836,6 +852,30 @@
   </si>
   <si>
     <t>C19,C24</t>
+  </si>
+  <si>
+    <t>Mouser Import</t>
+  </si>
+  <si>
+    <t>K224K20X7RF5UH5</t>
+  </si>
+  <si>
+    <t>BC2678CT-ND</t>
+  </si>
+  <si>
+    <t>594-K224K20X7RF5UH5</t>
+  </si>
+  <si>
+    <t>571-41037410</t>
+  </si>
+  <si>
+    <t>STP75NS04Z</t>
+  </si>
+  <si>
+    <t>511-STP62NS04Z</t>
+  </si>
+  <si>
+    <t>603-FMF-25FTF52100K</t>
   </si>
 </sst>
 </file>
@@ -845,7 +885,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -913,6 +953,17 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1964,8 +2015,8 @@
   </sheetPr>
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2029,7 +2080,7 @@
         <v>124</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="Q1" s="21" t="s">
         <v>130</v>
@@ -2120,7 +2171,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -2139,14 +2190,13 @@
         <v>173</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K4" s="2" t="str">
-        <f>VLOOKUP(I4,'[1]Component List'!$L:$N,3,FALSE)</f>
-        <v>80-C322C224K5R</v>
+        <v>244</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="L4" s="27">
         <v>0.66</v>
@@ -2158,11 +2208,11 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>6,399-4353-ND</v>
+        <v>6,BC2678CT-ND</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" ref="P4:P38" si="4">IF(NOT(K4=""),K4&amp;"|"&amp;A4,"")</f>
-        <v>80-C322C224K5R|6</v>
+        <v>594-K224K20X7RF5UH5|6</v>
       </c>
       <c r="Q4" t="str">
         <f t="shared" si="3"/>
@@ -2338,7 +2388,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>20</v>
@@ -2920,13 +2970,13 @@
         <v>174</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>94</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L20" s="27">
         <v>0.1</v>
@@ -2976,9 +3026,8 @@
       <c r="J21" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K21" s="2" t="e">
-        <f>VLOOKUP(I21,'[1]Component List'!$L:$N,3,FALSE)</f>
-        <v>#N/A</v>
+      <c r="K21" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="L21" s="27">
         <v>0.56000000000000005</v>
@@ -2992,9 +3041,9 @@
         <f t="shared" si="0"/>
         <v>6,S1012EC-40-ND</v>
       </c>
-      <c r="P21" t="e">
+      <c r="P21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>571-41037410|6</v>
       </c>
       <c r="Q21" t="str">
         <f t="shared" si="5"/>
@@ -3054,14 +3103,13 @@
         <v>173</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>93</v>
+        <v>247</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="K23" s="2" t="str">
-        <f>VLOOKUP(I23,'[1]Component List'!$L:$N,3,FALSE)</f>
-        <v>511-STP62NS04Z</v>
+        <v>233</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="L23" s="27">
         <v>1.51</v>
@@ -3071,7 +3119,7 @@
         <v>12.08</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O23" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3116,7 +3164,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>44</v>
@@ -3168,7 +3216,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>47</v>
@@ -3220,7 +3268,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C27" s="14">
         <v>680</v>
@@ -3327,13 +3375,13 @@
         <v>7</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>132</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -3344,10 +3392,10 @@
         <v>173</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>226</v>
@@ -3455,7 +3503,7 @@
         <v>62</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="L31" s="27">
         <v>0.1</v>
@@ -3471,7 +3519,7 @@
       </c>
       <c r="P31" t="str">
         <f t="shared" si="4"/>
-        <v>603-MFR-25FBF52-100K|12</v>
+        <v>603-FMF-25FTF52100K|12</v>
       </c>
       <c r="Q31" t="str">
         <f t="shared" si="7"/>
@@ -3639,7 +3687,7 @@
         <v>83</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L35" s="27">
         <v>15.41</v>
@@ -4072,7 +4120,7 @@
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4220,7 +4268,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -4420,7 +4468,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>20</v>
@@ -5062,7 +5110,7 @@
         <v>93</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L23" s="6">
         <v>1.51</v>
@@ -5072,7 +5120,7 @@
         <v>9.06</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O23" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5299,13 +5347,13 @@
         <v>3</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>132</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>55</v>
@@ -5318,10 +5366,10 @@
         <v>173</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>226</v>

--- a/reference/hardware/v0.3/BOMs/v0.3.6_bom.xlsx
+++ b/reference/hardware/v0.3/BOMs/v0.3.6_bom.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28702"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Full Kit" sheetId="1" r:id="rId1"/>
@@ -48,6 +48,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Josh Stewart:</t>
         </r>
@@ -56,6 +57,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 http://au.mouser.com/Tools/part-list-import.aspx</t>
@@ -935,6 +937,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -958,12 +961,14 @@
       <sz val="10"/>
       <color indexed="81"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="81"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2015,8 +2020,8 @@
   </sheetPr>
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3001,7 +3006,7 @@
     </row>
     <row r="21" spans="1:17" ht="40" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>100</v>
@@ -3034,20 +3039,20 @@
       </c>
       <c r="M21" s="27">
         <f>L21*A21</f>
-        <v>3.3600000000000003</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>6,S1012EC-40-ND</v>
+        <v>5,S1012EC-40-ND</v>
       </c>
       <c r="P21" t="str">
         <f t="shared" si="4"/>
-        <v>571-41037410|6</v>
+        <v>571-41037410|5</v>
       </c>
       <c r="Q21" t="str">
         <f t="shared" si="5"/>
-        <v>6x 40 POS 0.100 Pin Header</v>
+        <v>5x 40 POS 0.100 Pin Header</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4059,7 +4064,7 @@
       </c>
       <c r="M45" s="12">
         <f>SUM(M2:M44)</f>
-        <v>87.26</v>
+        <v>86.7</v>
       </c>
       <c r="N45" s="11" t="s">
         <v>74</v>
@@ -4106,8 +4111,8 @@
     <hyperlink ref="J8" r:id="rId10" display="399-4148-ND"/>
     <hyperlink ref="J29" r:id="rId11" display="985-1047-1-ND"/>
   </hyperlinks>
-  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="35" fitToHeight="2" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageMargins left="0.5" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId12"/>
 </worksheet>
 </file>

--- a/reference/hardware/v0.3/BOMs/v0.3.6_bom.xlsx
+++ b/reference/hardware/v0.3/BOMs/v0.3.6_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josh/Documents/Arduino/speeduino/reference/hardware/v0.3/BOMs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAE1B0C-7994-2D49-AB29-63DA6DF63A32}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C186DEC3-8C03-6B4E-9587-F6B80FDAECFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4540" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Kit" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,18 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2 Channel'!$A$1:$P$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Full Kit'!$A$1:$Q$45</definedName>
   </definedNames>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -128,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="254">
   <si>
     <t>QTY</t>
   </si>
@@ -879,6 +887,18 @@
   </si>
   <si>
     <t>603-FMF-25FTF52100K</t>
+  </si>
+  <si>
+    <t>SURGE ABSORBER 20MM 22V 1000A ZNR</t>
+  </si>
+  <si>
+    <t>Bournes Inc</t>
+  </si>
+  <si>
+    <t>MOV-20D220K</t>
+  </si>
+  <si>
+    <t>MOV-20D220K-ND</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1150,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1229,6 +1249,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2024,8 +2047,8 @@
   </sheetPr>
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:I38"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2043,7 +2066,7 @@
     <col min="17" max="17" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" thickBot="1">
+    <row r="1" spans="1:17" ht="43" thickBot="1">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2283,7 +2306,7 @@
         <v>Capacitor - 7x 0.1uF / 100nF</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="27" thickBot="1">
+    <row r="6" spans="1:17" ht="29" thickBot="1">
       <c r="A6" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -2337,7 +2360,7 @@
         <v>Capacitor - 1x 47uF</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="27" thickBot="1">
+    <row r="7" spans="1:17" ht="29" thickBot="1">
       <c r="A7" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -2581,7 +2604,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="40" thickBot="1">
+    <row r="12" spans="1:17" ht="43" thickBot="1">
       <c r="A12" s="20">
         <f>LEN(B12)-LEN(SUBSTITUTE(B12,",",""))+1</f>
         <v>1</v>
@@ -2636,7 +2659,7 @@
         <v>Diode - 1x 1N5919BG Zener</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="40" thickBot="1">
+    <row r="13" spans="1:17" ht="43" thickBot="1">
       <c r="A13" s="20">
         <f>LEN(B13)-LEN(SUBSTITUTE(B13,",",""))+1</f>
         <v>4</v>
@@ -2742,7 +2765,7 @@
         <v>Diode - 8x LED-Red</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="40" thickBot="1">
+    <row r="15" spans="1:17" ht="43" thickBot="1">
       <c r="A15" s="20">
         <f>LEN(B15)-LEN(SUBSTITUTE(B15,",",""))+1</f>
         <v>4</v>
@@ -2825,7 +2848,7 @@
         <v xml:space="preserve">x </v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="27" thickBot="1">
+    <row r="17" spans="1:17" ht="17" thickBot="1">
       <c r="A17" s="20">
         <v>1</v>
       </c>
@@ -2836,28 +2859,25 @@
         <v>36</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>37</v>
+        <v>250</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>173</v>
+        <v>251</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="2" t="str">
-        <f>VLOOKUP(I17,'[1]Component List'!$L:$N,3,FALSE)</f>
-        <v>667-ERZ-V14D220</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="K17" s="35"/>
       <c r="L17" s="27">
         <v>0.72</v>
       </c>
@@ -2868,11 +2888,11 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>1,P7307-ND</v>
+        <v>1,MOV-20D220K-ND</v>
       </c>
       <c r="P17" t="str">
         <f t="shared" si="4"/>
-        <v>667-ERZ-V14D220|1</v>
+        <v/>
       </c>
       <c r="Q17" t="str">
         <f t="shared" si="5"/>
@@ -2907,7 +2927,7 @@
         <v xml:space="preserve">x </v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="40" thickBot="1">
+    <row r="19" spans="1:17" ht="43" thickBot="1">
       <c r="A19" s="20">
         <v>14</v>
       </c>
@@ -3009,7 +3029,7 @@
         <v>5x Jumper</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="40" thickBot="1">
+    <row r="21" spans="1:17" ht="43" thickBot="1">
       <c r="A21" s="20">
         <v>5</v>
       </c>
@@ -3088,7 +3108,7 @@
         <v xml:space="preserve">x </v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="27" thickBot="1">
+    <row r="23" spans="1:17" ht="29" thickBot="1">
       <c r="A23" s="20">
         <f>LEN(B23)-LEN(SUBSTITUTE(B23,",",""))+1</f>
         <v>8</v>
@@ -3220,7 +3240,7 @@
         <v>Resistor - 1x 10k</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="27" thickBot="1">
+    <row r="26" spans="1:17" ht="29" thickBot="1">
       <c r="A26" s="20">
         <f>LEN(B26)-LEN(SUBSTITUTE(B26,",",""))+1</f>
         <v>15</v>
@@ -3272,7 +3292,7 @@
         <v>Resistor - 15x 1k</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="27" thickBot="1">
+    <row r="27" spans="1:17" ht="29" thickBot="1">
       <c r="A27" s="20">
         <f>LEN(B27)-LEN(SUBSTITUTE(B27,",",""))+1</f>
         <v>4</v>
@@ -3326,7 +3346,7 @@
         <v>Resistor - 4x 680</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="40" thickBot="1">
+    <row r="28" spans="1:17" ht="43" thickBot="1">
       <c r="A28" s="20">
         <f>LEN(B28)-LEN(SUBSTITUTE(B28,",",""))+1</f>
         <v>6</v>
@@ -3613,7 +3633,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="27" thickBot="1">
+    <row r="34" spans="1:17" ht="29" thickBot="1">
       <c r="A34" s="20">
         <v>1</v>
       </c>
@@ -3667,7 +3687,7 @@
         <v>1x LM2940T-5.0/NOPB</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="40" thickBot="1">
+    <row r="35" spans="1:17" ht="43" thickBot="1">
       <c r="A35" s="20">
         <v>1</v>
       </c>
@@ -3720,7 +3740,7 @@
         <v>1x 1-Bar MAP sensor</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="27" thickBot="1">
+    <row r="36" spans="1:17" ht="29" thickBot="1">
       <c r="A36" s="20">
         <v>2</v>
       </c>
@@ -4106,15 +4126,15 @@
   <hyperlinks>
     <hyperlink ref="J6" r:id="rId1" display="478-1910-ND" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="J13" r:id="rId2" display="1N5818-TPCT-ND" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J25" r:id="rId4" display="10.0KXBK-ND" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J30" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J31" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J35" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J3" r:id="rId8" display="478-1842-ND" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J7" r:id="rId9" display="445-5312-ND" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J8" r:id="rId10" display="399-4148-ND" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J29" r:id="rId11" display="985-1047-1-ND" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J25" r:id="rId3" display="10.0KXBK-ND" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J30" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J31" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J35" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J3" r:id="rId7" display="478-1842-ND" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J7" r:id="rId8" display="445-5312-ND" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J8" r:id="rId9" display="399-4148-ND" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J29" r:id="rId10" display="985-1047-1-ND" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J17" r:id="rId11" display="P7307-ND" xr:uid="{273EAF27-9C27-7A4D-9067-1E34D9E5F41D}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="33" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" copies="2"/>
@@ -4148,7 +4168,7 @@
     <col min="16" max="16" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27" thickBot="1">
+    <row r="1" spans="1:16" ht="29" thickBot="1">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -4322,7 +4342,7 @@
         <v>Capacitor - 6x 0.22uF</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" thickBot="1">
+    <row r="5" spans="1:16" ht="29" thickBot="1">
       <c r="A5" s="20">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4640,7 +4660,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="27" thickBot="1">
+    <row r="12" spans="1:16" ht="29" thickBot="1">
       <c r="A12" s="20">
         <f>LEN(B12)-LEN(SUBSTITUTE(B12,",",""))+1</f>
         <v>1</v>
@@ -4690,7 +4710,7 @@
         <v>Diode - 1x 1N5919BG Zener</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="27" thickBot="1">
+    <row r="13" spans="1:16" ht="29" thickBot="1">
       <c r="A13" s="20">
         <f>LEN(B13)-LEN(SUBSTITUTE(B13,",",""))+1</f>
         <v>4</v>
@@ -4784,7 +4804,7 @@
         <v>Diode - 4x LED-Red</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="27" thickBot="1">
+    <row r="15" spans="1:16" ht="29" thickBot="1">
       <c r="A15" s="20">
         <f>LEN(B15)-LEN(SUBSTITUTE(B15,",",""))+1</f>
         <v>2</v>
@@ -4931,7 +4951,7 @@
         <v xml:space="preserve">x </v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="27" thickBot="1">
+    <row r="19" spans="1:16" ht="29" thickBot="1">
       <c r="A19" s="20">
         <v>14</v>
       </c>
@@ -5019,7 +5039,7 @@
         <v>5x Jumper</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="27" thickBot="1">
+    <row r="21" spans="1:16" ht="29" thickBot="1">
       <c r="A21" s="20">
         <v>5</v>
       </c>
@@ -5090,7 +5110,7 @@
         <v xml:space="preserve">x </v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="27" thickBot="1">
+    <row r="23" spans="1:16" ht="29" thickBot="1">
       <c r="A23" s="20">
         <v>6</v>
       </c>
@@ -5303,7 +5323,7 @@
         <v>Resistor - 4x 680</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="27" thickBot="1">
+    <row r="28" spans="1:16" ht="29" thickBot="1">
       <c r="A28" s="20">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -5351,7 +5371,7 @@
         <v>Resistor - 6x 470</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="27" thickBot="1">
+    <row r="29" spans="1:16" ht="29" thickBot="1">
       <c r="A29" s="20">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -5566,7 +5586,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="27" thickBot="1">
+    <row r="34" spans="1:16" ht="29" thickBot="1">
       <c r="A34" s="20">
         <v>1</v>
       </c>
@@ -5615,7 +5635,7 @@
         <v>1x LM2940T-5.0/NOPB</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="27" thickBot="1">
+    <row r="35" spans="1:16" ht="29" thickBot="1">
       <c r="A35" s="20">
         <v>1</v>
       </c>
@@ -5660,7 +5680,7 @@
         <v>1x 1-Bar MAP sensor</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="27" thickBot="1">
+    <row r="36" spans="1:16" ht="29" thickBot="1">
       <c r="A36" s="20">
         <v>1</v>
       </c>

--- a/reference/hardware/v0.3/BOMs/v0.3.6_bom.xlsx
+++ b/reference/hardware/v0.3/BOMs/v0.3.6_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josh/Documents/Arduino/speeduino/reference/hardware/v0.3/BOMs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C186DEC3-8C03-6B4E-9587-F6B80FDAECFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC408DC-E692-6244-B607-A5981078000F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4540" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="500" windowWidth="25600" windowHeight="14560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Kit" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="256">
   <si>
     <t>QTY</t>
   </si>
@@ -889,16 +889,22 @@
     <t>603-FMF-25FTF52100K</t>
   </si>
   <si>
-    <t>SURGE ABSORBER 20MM 22V 1000A ZNR</t>
-  </si>
-  <si>
     <t>Bournes Inc</t>
   </si>
   <si>
-    <t>MOV-20D220K</t>
-  </si>
-  <si>
-    <t>MOV-20D220K-ND</t>
+    <t>RES 10 OHM 2W 5% AXIAL</t>
+  </si>
+  <si>
+    <t>FMP200JR-52-10R</t>
+  </si>
+  <si>
+    <t>10ZCT-ND</t>
+  </si>
+  <si>
+    <t>V14E14AUTO</t>
+  </si>
+  <si>
+    <t>F6389-ND</t>
   </si>
 </sst>
 </file>
@@ -1244,14 +1250,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2047,8 +2053,8 @@
   </sheetPr>
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2859,25 +2865,25 @@
         <v>36</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>251</v>
+        <v>174</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="K17" s="35"/>
+        <v>254</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="K17" s="33"/>
       <c r="L17" s="27">
         <v>0.72</v>
       </c>
@@ -2888,7 +2894,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>1,MOV-20D220K-ND</v>
+        <v>1,F6389-ND</v>
       </c>
       <c r="P17" t="str">
         <f t="shared" si="4"/>
@@ -3565,10 +3571,10 @@
         <v>197</v>
       </c>
       <c r="C32" s="3">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>63</v>
+        <v>251</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -3579,15 +3585,12 @@
         <v>173</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K32" s="2" t="str">
-        <f>VLOOKUP(I32,'[1]Component List'!$L:$N,3,FALSE)</f>
-        <v>594-5083NW160R0J</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K32" s="33"/>
       <c r="L32" s="27">
         <v>0.27</v>
       </c>
@@ -3598,15 +3601,15 @@
       <c r="N32" s="4"/>
       <c r="O32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>4,160YCT-ND</v>
+        <v>4,10ZCT-ND</v>
       </c>
       <c r="P32" t="str">
         <f t="shared" si="4"/>
-        <v>594-5083NW160R0J|4</v>
+        <v/>
       </c>
       <c r="Q32" t="str">
         <f t="shared" si="7"/>
-        <v>Resistor - 4x 160</v>
+        <v>Resistor - 4x 10</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="17" thickBot="1">
@@ -4079,10 +4082,10 @@
       <c r="F45" s="23"/>
       <c r="G45" s="4"/>
       <c r="H45" s="9"/>
-      <c r="I45" s="33" t="s">
+      <c r="I45" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="J45" s="34"/>
+      <c r="J45" s="35"/>
       <c r="K45" s="32"/>
       <c r="L45" s="1" t="s">
         <v>73</v>
@@ -4134,11 +4137,10 @@
     <hyperlink ref="J7" r:id="rId8" display="445-5312-ND" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="J8" r:id="rId9" display="399-4148-ND" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="J29" r:id="rId10" display="985-1047-1-ND" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J17" r:id="rId11" display="P7307-ND" xr:uid="{273EAF27-9C27-7A4D-9067-1E34D9E5F41D}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="33" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" copies="2"/>
-  <legacyDrawing r:id="rId12"/>
+  <legacyDrawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -5979,10 +5981,10 @@
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="33" t="s">
+      <c r="J45" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="K45" s="34"/>
+      <c r="K45" s="35"/>
       <c r="L45" s="1" t="s">
         <v>73</v>
       </c>
